--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -1426,12 +1426,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fiserv</t>
+          <t>Fortinet</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,29 +1441,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>GEHC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fortinet</t>
+          <t>GE HealthCare</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Health Care Technology</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -2130,56 +2130,56 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Paccar</t>
+          <t>Onsemi</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Trucks</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Palo Alto Networks</t>
+          <t>Paccar</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Construction Machinery &amp; Heavy Trucks</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Paychex</t>
+          <t>Palo Alto Networks</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,19 +2189,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Paychex</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,110 +2218,110 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PDD Holdings</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Data Processing &amp; Outsourced Services</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>PDD Holdings</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Regeneron</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rivian</t>
+          <t>Regeneron</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -458,34 +458,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ATVI</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Activision Blizzard</t>
+          <t>Adobe Inc.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interactive Home Entertainment</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adobe Inc.</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,85 +495,85 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Data Processing &amp; Outsourced Services</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>Airbnb</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ABNB</t>
+          <t>ALGN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Airbnb</t>
+          <t>Align Technology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Health Care Supplies</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Align Technology</t>
+          <t>Alphabet Inc. (Class A)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Interactive Media &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alphabet Inc. (Class A)</t>
+          <t>Alphabet Inc. (Class C)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -590,122 +590,122 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alphabet Inc. (Class C)</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interactive Media &amp; Services</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Advanced Micro Devices Inc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices Inc.</t>
+          <t>American Electric Power</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>American Electric Power</t>
+          <t>Amgen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amgen</t>
+          <t>Analog Devices</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Analog Devices</t>
+          <t>Ansys</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ansys</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple Inc.</t>
+          <t>Applied Materials</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Semiconductor Equipment</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Applied Materials</t>
+          <t>ASML Holding</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -788,56 +788,56 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASML Holding</t>
+          <t>AstraZeneca</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AstraZeneca</t>
+          <t>Atlassian</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atlassian</t>
+          <t>Autodesk</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,100 +854,100 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Autodesk</t>
+          <t>Baker Hughes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>Biogen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Equipment &amp; Services</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biogen</t>
+          <t>Booking Holdings</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Booking Holdings</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>Cadence Design Systems</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -957,85 +957,85 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>Charter Communications</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Cable &amp; Satellite</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Charter Communications</t>
+          <t>Cintas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cable &amp; Satellite</t>
+          <t>Diversified Support Services</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cintas</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Diversified Support Services</t>
+          <t>Communications Equipment</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Cognizant</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,85 +1045,85 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Communications Equipment</t>
+          <t>IT Consulting &amp; Other Services</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cognizant</t>
+          <t>Comcast</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IT Consulting &amp; Other Services</t>
+          <t>Cable &amp; Satellite</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>Constellation Energy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cable &amp; Satellite</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Constellation Energy</t>
+          <t>Copart</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Diversified Support Services</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Copart</t>
+          <t>CoStar Group</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1133,173 +1133,173 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Diversified Support Services</t>
+          <t>Research &amp; Consulting Services</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CoStar Group</t>
+          <t>Costco</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Hypermarkets &amp; Super Centers</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Costco</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hypermarkets &amp; Super Centers</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>CSX Corporation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Railroads</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CSX Corporation</t>
+          <t>Datadog</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Railroads</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Datadog</t>
+          <t>DexCom</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DexCom</t>
+          <t>Diamondback Energy</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Diamondback Energy</t>
+          <t>Dollar Tree</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>General Merchandise Stores</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>EBAY</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dollar Tree</t>
+          <t>eBay</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,151 +1309,151 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>General Merchandise Stores</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>eBay</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Electronic Arts</t>
+          <t>Enphase Energy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interactive Home Entertainment</t>
+          <t>Electronic Components</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Enphase Energy</t>
+          <t>Exelon</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Exelon</t>
+          <t>Fastenal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Building Products</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fastenal</t>
+          <t>Fortinet</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Building Products</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>GEHC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fortinet</t>
+          <t>GE HealthCare</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Health Care Technology</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GE HealthCare</t>
+          <t>Gilead Sciences</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,85 +1463,85 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Health Care Technology</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>GFS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gilead Sciences</t>
+          <t>GlobalFoundries</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GFS</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GlobalFoundries</t>
+          <t>Honeywell</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Industrial Conglomerates</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Honeywell</t>
+          <t>Idexx Laboratories</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Industrial Conglomerates</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>ILMN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Idexx Laboratories</t>
+          <t>Illumina, Inc.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1551,41 +1551,41 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ILMN</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Illumina, Inc.</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Intuit</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1595,173 +1595,173 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Intuit</t>
+          <t>Intuitive Surgical</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Intuitive Surgical</t>
+          <t>JD.com</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JD.com</t>
+          <t>Keurig Dr Pepper</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper</t>
+          <t>KLA Corporation</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Semiconductor Equipment</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KLA Corporation</t>
+          <t>Kraft Heinz</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kraft Heinz</t>
+          <t>Lam Research</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Semiconductor Equipment</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LCID</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lam Research</t>
+          <t>Lucid Motors</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LCID</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lucid Motors</t>
+          <t>Lululemon</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1771,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lululemon</t>
+          <t>Marriott International</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,107 +1793,107 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marriott International</t>
+          <t>Marvell Technology</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Marvell Technology</t>
+          <t>MercadoLibre</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MercadoLibre</t>
+          <t>Meta Platforms</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Interactive Media &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Meta Platforms</t>
+          <t>Microchip Technology</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interactive Media &amp; Services</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Microchip Technology</t>
+          <t>Micron Technology</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1910,12 +1910,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,63 +1925,63 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Moderna</t>
+          <t>Mondelēz International</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mondelēz International</t>
+          <t>Monster Beverage</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1991,63 +1991,63 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Monster Beverage</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Movies &amp; Entertainment</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Nvidia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Movies &amp; Entertainment</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nvidia</t>
+          <t>NXP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2064,122 +2064,122 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NXP</t>
+          <t>O'Reilly Automotive</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Specialty Stores</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>O'Reilly Automotive</t>
+          <t>Old Dominion Freight Line</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Trucking</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Old Dominion Freight Line</t>
+          <t>Onsemi</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Trucking</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Onsemi</t>
+          <t>Paccar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Construction Machinery &amp; Heavy Trucks</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Paccar</t>
+          <t>Palo Alto Networks</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Trucks</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Palo Alto Networks</t>
+          <t>Paychex</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,19 +2189,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Data Processing &amp; Outsourced Services</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Paychex</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,288 +2218,284 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>PDD Holdings</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Internet &amp; Direct Marketing Retail</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PDD Holdings</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Soft Drinks</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>Regeneron</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Regeneron</t>
+          <t>Ross Stores</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>SGEN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ross Stores</t>
+          <t>Seagen</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Apparel Retail</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SGEN</t>
+          <t>SIRI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Seagen</t>
+          <t>Sirius XM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Broadcasting</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SIRI</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sirius XM</t>
+          <t>Starbucks</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Restaurants</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>Synopsys</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Synopsys</t>
+          <t>T-Mobile US</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Wireless Telecommunication Services</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>T-Mobile US</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Texas Instruments</t>
+          <t>The Trade Desk</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
-        </is>
-      </c>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -2495,7 +2495,11 @@
           <t>Communication Services</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -490,12 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hypermarkets &amp; Super Centers</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Railroads</t>
+          <t>Rail Transportation</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>General Merchandise Stores</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Automotive Retail</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Trucking</t>
+          <t>Cargo Ground Transportation</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Trucks</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2184,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Data Processing &amp; Outsourced Services</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Soft Drinks</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -1128,12 +1128,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -524,34 +524,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALGN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Align Technology</t>
+          <t>Alphabet Inc. (Class A)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Interactive Media &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alphabet Inc. (Class A)</t>
+          <t>Alphabet Inc. (Class C)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,122 +568,122 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alphabet Inc. (Class C)</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interactive Media &amp; Services</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Advanced Micro Devices Inc.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advanced Micro Devices Inc.</t>
+          <t>American Electric Power</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AEP</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>American Electric Power</t>
+          <t>Amgen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amgen</t>
+          <t>Analog Devices</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>ANSS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Analog Devices</t>
+          <t>Ansys</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +693,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ansys</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apple Inc.</t>
+          <t>Applied Materials</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Semiconductor Equipment</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Applied Materials</t>
+          <t>ASML Holding</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -766,56 +766,56 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASML Holding</t>
+          <t>AstraZeneca</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AstraZeneca</t>
+          <t>Atlassian</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TEAM</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Atlassian</t>
+          <t>Autodesk</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -832,100 +832,100 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Autodesk</t>
+          <t>Baker Hughes</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>Biogen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Equipment &amp; Services</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>BKNG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Biogen</t>
+          <t>Booking Holdings</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Booking Holdings</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>CDNS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>Cadence Design Systems</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,19 +935,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>CDW</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cadence Design Systems</t>
+          <t>CDW Corporation</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Technology Distributors</t>
         </is>
       </c>
     </row>
@@ -1030,330 +1030,322 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>CCEP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cognizant</t>
+          <t>Coca-Cola Europacific Partners</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Information Technology</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>IT Consulting &amp; Other Services</t>
-        </is>
-      </c>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>Cognizant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cable &amp; Satellite</t>
+          <t>IT Consulting &amp; Other Services</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Constellation Energy</t>
+          <t>Comcast</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Cable &amp; Satellite</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Copart</t>
+          <t>Constellation Energy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Diversified Support Services</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CoStar Group</t>
+          <t>Copart</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Diversified Support Services</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Costco</t>
+          <t>CoStar Group</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CrowdStrike</t>
+          <t>Costco</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>CRWD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CSX Corporation</t>
+          <t>CrowdStrike</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rail Transportation</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DDOG</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Datadog</t>
+          <t>CSX Corporation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Rail Transportation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>DDOG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DexCom</t>
+          <t>Datadog</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Diamondback Energy</t>
+          <t>DexCom</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dollar Tree</t>
+          <t>Diamondback Energy</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>eBay</t>
+          <t>Dollar Tree</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Electronic Arts</t>
+          <t>Doordash</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Interactive Home Entertainment</t>
-        </is>
-      </c>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Enphase Energy</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
     </row>
@@ -1624,122 +1616,122 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JD.com</t>
+          <t>Keurig Dr Pepper</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper</t>
+          <t>KLA Corporation</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+          <t>Semiconductor Equipment</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KLA Corporation</t>
+          <t>Kraft Heinz</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kraft Heinz</t>
+          <t>Lam Research</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Semiconductor Equipment</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lam Research</t>
+          <t>Lululemon</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Semiconductor Equipment</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LCID</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lucid Motors</t>
+          <t>Marriott International</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,41 +1741,41 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lululemon</t>
+          <t>Marvell Technology</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Marriott International</t>
+          <t>MercadoLibre</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,85 +1785,85 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marvell Technology</t>
+          <t>Meta Platforms</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Interactive Media &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MercadoLibre</t>
+          <t>Microchip Technology</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Meta Platforms</t>
+          <t>Micron Technology</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interactive Media &amp; Services</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Microchip Technology</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,85 +1873,81 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Mondelēz International</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Moderna</t>
+          <t>MongoDB Inc.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Health Care</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mondelēz International</t>
+          <t>Monster Beverage</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1969,63 +1957,63 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Monster Beverage</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+          <t>Movies &amp; Entertainment</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Nvidia</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Movies &amp; Entertainment</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nvidia</t>
+          <t>NXP</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2042,264 +2030,264 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NXP</t>
+          <t>O'Reilly Automotive</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Automotive Retail</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>O'Reilly Automotive</t>
+          <t>Old Dominion Freight Line</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Automotive Retail</t>
+          <t>Cargo Ground Transportation</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Old Dominion Freight Line</t>
+          <t>Onsemi</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cargo Ground Transportation</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Onsemi</t>
+          <t>Paccar</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Paccar</t>
+          <t>Palo Alto Networks</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Palo Alto Networks</t>
+          <t>Paychex</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Paychex</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Human Resource &amp; Employment Services</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>PDD Holdings</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PDD Holdings</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>Regeneron</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Regeneron</t>
+          <t>Roper Technologies</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
     </row>
@@ -2328,44 +2316,44 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SGEN</t>
+          <t>SIRI</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Seagen</t>
+          <t>Sirius XM</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Broadcasting</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SIRI</t>
+          <t>SPLK</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sirius XM</t>
+          <t>Splunk</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2404,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T-Mobile US</t>
+          <t>Take-Two Interactive</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2431,227 +2419,227 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>T-Mobile US</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Wireless Telecommunication Services</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Texas Instruments</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>The Trade Desk</t>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Advertising</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Verisk</t>
+          <t>The Trade Desk</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Advertising</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Vertex Pharmaceuticals</t>
+          <t>Verisk</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Research &amp; Consulting Services</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Walgreens Boots Alliance</t>
+          <t>Vertex Pharmaceuticals</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Drug Retail</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery</t>
+          <t>Walgreens Boots Alliance</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Drug Retail</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>WDAY</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Workday, Inc.</t>
+          <t>Warner Bros. Discovery</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Broadcasting</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>WDAY</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Xcel Energy</t>
+          <t>Workday, Inc.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Zoom Video Communications</t>
+          <t>Xcel Energy</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -1040,10 +1040,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1317,7 +1321,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Doordash</t>
+          <t>DoorDash</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1325,7 +1329,11 @@
           <t>Consumer Discretionary</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Specialized Consumer Services</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1937,7 +1945,11 @@
           <t>Information Technology</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Systems Software</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Building Products</t>
+          <t>Trading Companies &amp; Distributors</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Health Care Technology</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/nasdaq_100_tickers.xlsx
@@ -1712,34 +1712,34 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LULU</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lululemon</t>
+          <t>Linde plc</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Industrial Gases</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LULU</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marriott International</t>
+          <t>Lululemon</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,107 +1749,107 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Marvell Technology</t>
+          <t>Marriott International</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MELI</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MercadoLibre</t>
+          <t>Marvell Technology</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Application Software</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>MELI</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Meta Platforms</t>
+          <t>MercadoLibre</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interactive Media &amp; Services</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Microchip Technology</t>
+          <t>Meta Platforms</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Interactive Media &amp; Services</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Micron Technology</t>
+          <t>Microchip Technology</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1866,12 +1866,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Micron Technology</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,151 +1881,151 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Moderna</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mondelēz International</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MDB</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MongoDB Inc.</t>
+          <t>Mondelēz International</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>MDB</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Monster Beverage</t>
+          <t>MongoDB Inc.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Monster Beverage</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Movies &amp; Entertainment</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nvidia</t>
+          <t>Netflix</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Movies &amp; Entertainment</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NXP</t>
+          <t>Nvidia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2042,330 +2042,330 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORLY</t>
+          <t>NXPI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>O'Reilly Automotive</t>
+          <t>NXP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Automotive Retail</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>ORLY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Old Dominion Freight Line</t>
+          <t>O'Reilly Automotive</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cargo Ground Transportation</t>
+          <t>Automotive Retail</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Onsemi</t>
+          <t>Old Dominion Freight Line</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Cargo Ground Transportation</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Paccar</t>
+          <t>Onsemi</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>PCAR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Palo Alto Networks</t>
+          <t>Paccar</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Paychex</t>
+          <t>Palo Alto Networks</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Human Resource &amp; Employment Services</t>
+          <t>Systems Software</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PAYX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>Paychex</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PDD Holdings</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>PDD Holdings</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Regeneron</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Roper Technologies</t>
+          <t>Regeneron</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Biotechnology</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ross Stores</t>
+          <t>Roper Technologies</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Apparel Retail</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SIRI</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sirius XM</t>
+          <t>Ross Stores</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SPLK</t>
+          <t>SIRI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Splunk</t>
+          <t>Sirius XM</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Broadcasting</t>
         </is>
       </c>
     </row>
